--- a/biology/Botanique/Loes/Loes..xlsx
+++ b/biology/Botanique/Loes/Loes..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Eduard Theodor Loesener, né le 23 novembre 1865 et mort le 2 juin 1941, est un botaniste allemand.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à l'université de Lausanne et à l'université de Berlin, où il obtient son doctorat de philologie en 1890[1]. En 1896, il est nommé botaniste assistant au musée botanique de Berlin-Dahlem, puis conservateur en 1904 et professeur en 1912, jusqu'à sa retraite en 1920[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à l'université de Lausanne et à l'université de Berlin, où il obtient son doctorat de philologie en 1890. En 1896, il est nommé botaniste assistant au musée botanique de Berlin-Dahlem, puis conservateur en 1904 et professeur en 1912, jusqu'à sa retraite en 1920.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Monographia aquifoliacearum, In : Nova acta - Kaiserlich Leopoldinisch-Carolinische Deutsche Akademie der Naturforscher. - Vol. 78, 1901, 598 p. - Pars I.
-Auteur en taxinomie végétale sous l'abréviation Loes., il appartient à l'école d'Adolf Engler. Selon l'International Plant Names Index, on lui doit plus de 1 800 taxons[3], tels que Olmediella betschleriana, Gymnosporia senegalensis, Calathea loeseneri, Maytenus senegalensis ou Aulotandra kamerunensis.
+Auteur en taxinomie végétale sous l'abréviation Loes., il appartient à l'école d'Adolf Engler. Selon l'International Plant Names Index, on lui doit plus de 1 800 taxons, tels que Olmediella betschleriana, Gymnosporia senegalensis, Calathea loeseneri, Maytenus senegalensis ou Aulotandra kamerunensis.
 </t>
         </is>
       </c>
